--- a/Planner Tasks from Flow.xlsx
+++ b/Planner Tasks from Flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mvpapplepark.sharepoint.com/TablesInExcel/Shared Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF64991-E1AB-44B6-BA88-12EF6458B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8645" documentId="11_51CBC576E29B7D39A99C59F42B75B2D42C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9365D1B-B0ED-4A7E-855B-2102DFC9A75C}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="5" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,7 +1616,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}" name="Plan_tbl" displayName="Plan_tbl" ref="C4:D5" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}" name="Plan_tbl" displayName="Plan_tbl" ref="C4:D5" insertRow="1" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="C4:D5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DC1DDFC2-6F8E-4F3F-AE51-F63302EFC0AE}" name="Plan ID"/>
@@ -1627,7 +1627,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{558C1F6A-C903-43F6-8559-3C0263019CF5}" name="Bucket_tbl" displayName="Bucket_tbl" ref="C4:E5" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{558C1F6A-C903-43F6-8559-3C0263019CF5}" name="Bucket_tbl" displayName="Bucket_tbl" ref="C4:E5" insertRow="1" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="C4:E5" xr:uid="{558C1F6A-C903-43F6-8559-3C0263019CF5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{33DF5CD2-6335-4571-973A-75DCB98643B2}" name="Plan Id"/>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3B8FAFF0-5141-46CD-87EE-EA0FD8F708B4}" name="Task_tbl" displayName="Task_tbl" ref="C4:AU5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3B8FAFF0-5141-46CD-87EE-EA0FD8F708B4}" name="Task_tbl" displayName="Task_tbl" ref="C4:AU5" insertRow="1" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="C4:AU5" xr:uid="{3B8FAFF0-5141-46CD-87EE-EA0FD8F708B4}"/>
   <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{2E459D10-625B-479F-964E-CB18910F1C5B}" name="Created By User Display Name" dataDxfId="47"/>
@@ -1693,7 +1693,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0BB0DD4-7A9B-4AE1-BE3C-7829BBAB7700}" name="Assignments_tbl" displayName="Assignments_tbl" ref="C4:E5" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0BB0DD4-7A9B-4AE1-BE3C-7829BBAB7700}" name="Assignments_tbl" displayName="Assignments_tbl" ref="C4:E5" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="C4:E5" xr:uid="{6765AC4E-906D-4025-9CB2-9ADDAF4C4370}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{25BA9D37-501E-4F02-8602-955918BEA87A}" name="Plan ID" dataDxfId="1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C82BA1FC-45F4-46FA-B8A9-BF26EFB3F239}" name="User_tbl" displayName="User_tbl" ref="C4:G5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C82BA1FC-45F4-46FA-B8A9-BF26EFB3F239}" name="User_tbl" displayName="User_tbl" ref="C4:G5" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="C4:G5" xr:uid="{C82BA1FC-45F4-46FA-B8A9-BF26EFB3F239}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FA0A3F04-C404-4753-A359-96D1AC675CAB}" name="Group ID"/>
@@ -2017,21 +2017,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA97DDB5-27E3-41F9-B292-6015C745C1B8}">
   <dimension ref="C2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -2055,21 +2057,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF7DEA5-1B39-48EE-834B-00691A9115DC}">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:5">
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2097,9 +2101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEBD98-CDDF-46A5-BB8F-EECC25228C81}">
   <dimension ref="C2:AU5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -2137,12 +2143,12 @@
     <col min="47" max="47" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:47">
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:47">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:47">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2339,10 +2345,10 @@
   <dimension ref="C2:E5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -2350,12 +2356,12 @@
     <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:5">
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2383,9 +2389,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C281388-C674-4062-AABB-9DD31C7855BF}">
   <dimension ref="C2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -2393,12 +2401,12 @@
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7">
       <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7">
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2431,24 +2439,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009CA9B542675F7141B267F5FBB4E5548B" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56bc82b3411f11fec11dfd1332b8036c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb3852fe-0a31-4c77-b108-3b9ac2213148" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e3b75893ea11a3bc753c1cdee2fae1" ns2:_="">
-    <xsd:import namespace="bb3852fe-0a31-4c77-b108-3b9ac2213148"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097B568CC181A184DBAD48B66BCFB61C3" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73aae920ff15320c0d0dfc9139baf68e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13eec64a-32a9-4fd0-a336-4eadf2a38ca3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="235eb012d5b570cf91b3dde9100a9fa2" ns2:_="">
+    <xsd:import namespace="13eec64a-32a9-4fd0-a336-4eadf2a38ca3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2464,7 +2457,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bb3852fe-0a31-4c77-b108-3b9ac2213148" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="13eec64a-32a9-4fd0-a336-4eadf2a38ca3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2577,37 +2570,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F00E97-DA2B-41C3-B646-FF1ECFABBD44}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1971709E-BAD8-48EC-896D-004D7B29A3D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb3852fe-0a31-4c77-b108-3b9ac2213148"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}"/>
 </file>